--- a/testData/UserData.xlsx
+++ b/testData/UserData.xlsx
@@ -86,7 +86,7 @@
     <t>$1,204.00</t>
   </si>
   <si>
-    <t>prajwalnshashank3@gmail.com</t>
+    <t>prajwalnshashank4@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/testData/UserData.xlsx
+++ b/testData/UserData.xlsx
@@ -86,7 +86,7 @@
     <t>$1,204.00</t>
   </si>
   <si>
-    <t>prajwalnshashank4@gmail.com</t>
+    <t>prajwalnshashank7@gmail.com</t>
   </si>
 </sst>
 </file>
